--- a/trunk/成品/R1/卫生信息数据元目录/卫生信息数据元目录.xlsx
+++ b/trunk/成品/R1/卫生信息数据元目录/卫生信息数据元目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21030" windowHeight="11640" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="21030" windowHeight="11640" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -50500,8 +50500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51213,8 +51213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/成品/R1/卫生信息数据元目录/卫生信息数据元目录.xlsx
+++ b/trunk/成品/R1/卫生信息数据元目录/卫生信息数据元目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21030" windowHeight="11640" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="21030" windowHeight="11640" firstSheet="19" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -14108,627 +14108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WS 363.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.102 出生（分娩）地点类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.104 传染病患者归属代码表</t>
-  </si>
-  <si>
-    <t>WS 363.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.202 传染病患者职业代码表</t>
-  </si>
-  <si>
-    <t>WS 363.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.203 家庭年人均收入代码表</t>
-  </si>
-  <si>
-    <t>WS 363.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.101 身份证件类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.103 死亡地点类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.204 医疗保险类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.004 出生缺陷儿结局代码表</t>
-  </si>
-  <si>
-    <t>WS 363.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.003 分娩方式代码表</t>
-  </si>
-  <si>
-    <t>WS 363.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.005 既往常见疾病种类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.006 既往患病种类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.005 既往治疗效果类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.001 家族近亲婚配者与本人关系代码表</t>
-  </si>
-  <si>
-    <t>WS 363.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.002 妊娠终止方式代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.114 艾滋病接触史代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.404 艾滋病患者亲属HIV感染状况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.102 被动吸烟场所类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.304 厕所类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.302 厨房排风设施类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.116 个人不良行为接触史代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.301 环境危险因素暴露类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.112 患重性精神疾病对家庭社会的影响代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.403 接触有害因素类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.110 每年食用的食物食用频率代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.114 每日饮水量代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.109 每天食用的食物食用频率代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.303 燃料类型类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.106 饮食种类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.202 受照原因代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.103 吸食烟草种类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.101 吸烟状态代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.104 饮酒频率代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.105 饮酒种类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.108 饮食频率分类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.107 饮食习惯代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.115 饮水类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.402 孕产期高危因素代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.401 孕早期服药类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.111 身体活动频率代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.203 职业病危害因素类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.201 职业照射种类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.204 农药名称代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.012 儿童大便性状代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.010 儿童睡眠质量代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.011 儿童睡眠情况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.001 妇科及乳腺不适症状代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.009 精神症状代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.013 老年人健康状态自我评估代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.008 慢性丝虫病患者症状代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.002 乳汁量代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.005 伤害发生地点代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.006 伤害发生时活动类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.003 伤害发生原因代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.004 伤害意图类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.007 疑似结核患者症状代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.010 齿列类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.008 儿童面色代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.021 可疑佝偻病症状代码</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.005 浮肿状况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.003 妇科检查方式代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.001 附件检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.013 肛门指诊检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.006 巩膜检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.009 黄疸部位代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.022 可疑佝偻病体征代码</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.007 口唇外观代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.011 淋巴结检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.017 慢性丝虫病症状发作部位代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.004 皮肤检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.018 前囟张力代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.012 乳腺检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.016 伤害部位代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.014 下肢水肿检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.002 子宫大小代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.015 足背动脉搏动代码表</t>
-  </si>
-  <si>
-    <t>WS 363.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.019 脐带检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.8 卫生信息数据元值域代码 第8部分:临床辅助检查 CV04.30.002 常用放射诊断检查技术编码表</t>
-  </si>
-  <si>
-    <t>WS 363.8 卫生信息数据元值域代码 第8部分:临床辅助检查 CV04.30.001 血吸虫患者肝实质纤维化程度代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.005 ABO血型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.002 HBV基因分型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.004 HBV耐药突变检测阳性项目代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.003 HBV血清型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.001 HBV血清学标志阳性项目代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.007 采血部位代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.006 采血方式代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.015 尿实验室定性检测结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.012 妊娠诊断方法代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.014 痰检培养结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.009 新生儿疾病筛查方法代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.008 新生儿疾病筛查项目代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.016 血吸虫病虫卵检查方法代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.017 血吸虫病检测方法代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.018 血吸虫病抗体检测方法代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.013 药敏试验结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.010 阴道分泌物清洁度代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.011 阴道细胞学诊断结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.019 阴道分泌物检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.039 5岁以下儿童死因分类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.028 病毒性肝炎类型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.010 会阴裂伤情况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.009 产时并发症代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.016 出生缺陷类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.015 出生缺陷确诊时间类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.014 出生缺陷诊断依据代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.017 传染病名称代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.033 放射性疾病的分度代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.034 放射性疾病的分期代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.021 肺结核诊断结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.019 肺外结核部位代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.031 肝衰竭分类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.038 过敏源代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.018 结核病合并症代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.029 慢性HBV感染临床诊断分类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.030 慢性乙型肝炎的临床分级代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.035 农药中毒原因类型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.003 乳糜尿发作诱因代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.004 伤害性质代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.011 伤口愈合状况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.025 晚期血吸虫病病例类型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.037 死亡最高诊断依据类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.007 胎方位代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.008 胎先露代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.013 新生儿并发症代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.012 新生儿黄疸程度代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.023 血吸虫病感染方式代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.022 血吸虫病合并症代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.032 预防接种后不良反应临床诊断代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.006 孕产妇死亡死因分类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.020 诊断结核病类型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.002 诊断状态代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.005 中医体质分类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.026 肿瘤临床分期代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.027 肿瘤诊断依据代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.036 重性精神疾病名称代码表</t>
-  </si>
-  <si>
-    <t>WS 363.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.001 住院者疾病状态代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.001 残疾情况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.015 5岁以下儿童未治疗或未就医原因代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.007 儿童体弱原因类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.005 婚前医学检查结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.014 老年人生活自理能力自我评估代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.006 儿童生长发育评价结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.010 疾病转归代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.011 伤害转归代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.003 重性精神疾病患者社会功能情况分类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.012 随访评价结果代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.013 重性精神疾病患者危险性分级代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.002 心理状态代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.008 血吸虫病患者劳动能力分级代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.018 疑似食源性异常病例（健康事件）报告卡上报原因代码</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码:医学评估 CV05.10.015 乙肝患者病情转归代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.014 乙肝抗病毒治疗的血清学应答代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.004 劳动能力评定分级代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.009 职业健康检查结论代码表</t>
-  </si>
-  <si>
-    <t>WS 363.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.017 疑似食源性异常病例（健康事件）可疑病因代码</t>
-  </si>
-  <si>
-    <t>WS 363.11卫生信息数据元值域代码 第11部分:医学评估 CV05.10.016 影响孕产妇死亡的主要因素代码表</t>
-  </si>
-  <si>
-    <t>WS 363.13 卫生信息数据元值域代码 第13部分:卫生费用 CV07.10.001 门诊费用分类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.13 卫生信息数据元值域代码 第13部分:卫生费用 CV07.10.004 医疗费用结算方式代码表</t>
-  </si>
-  <si>
-    <t>WS 363.13 卫生信息数据元值域代码 第13部分:卫生费用 CV07.10.003 医疗费用来源类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.003 监督员执业范围代码表</t>
-  </si>
-  <si>
-    <t>WS 363.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.001 卫生监督机构人员编制类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.002 卫生监督机构行政级别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.001 卫生监督机构性质代码表</t>
-  </si>
-  <si>
-    <t>WS 363.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.006 血吸虫病诊断（治疗）机构级别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.005 肿瘤诊疗机构代码表</t>
-  </si>
-  <si>
-    <t>WS 363.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.004 主要致死疾病的最高诊断机构级别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.003 监督机构科室代码表</t>
-  </si>
-  <si>
-    <t>WS 363.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.002 卫生监督机构职工类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.004 助产人员类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.005 专业技术职务类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.101 宫内节育器种类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.102 交通工具代码表</t>
-  </si>
-  <si>
-    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.001 疫苗名称代码表</t>
-  </si>
-  <si>
-    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.003 药敏试验药物代码表</t>
-  </si>
-  <si>
-    <t>WS 363.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.002 药物剂型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.213 采供血卫生违法事实代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.202 卫生监督检查与行政处罚案件来源代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.204 卫生行政处罚结果及行政措施代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.212 传染病防治违法事实代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.101 单位类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.208 放射卫生违法事实代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.112 放射性同位素和射线装置的种类代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.205 公共场所违法事实代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.111 资质等级代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.110 职业卫生技术服务业务范围代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.217 卫生监督证书类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.108 检验指标代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.301 检查结果通知形式代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码:卫生管理 CV09.00.206 生活饮用水违法事实代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.401 收入与支出代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.105 水源水类型代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.203 卫生监督检查与行政处罚专业类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.201 卫生监督量化分级管理等级评定情况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.102 项目性质代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.209 校内辅助设施类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.216 行政处分类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.214 行政复议情况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.215 行政诉讼情况代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.218 许可类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.210 学校卫生违法事实代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.211 医疗卫生违法事实代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.104 饮用水类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.107 生活饮用水消毒方式代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.106 制水工艺代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.103 职业病建设项目审核代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.207 职业卫生违法事实代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.109 职业性健康监护体检类别代码表</t>
-  </si>
-  <si>
-    <t>WS 363.17 卫生信息数据元值域代码:卫生管理 CV09.00.402 资产与负债代码表</t>
-  </si>
-  <si>
     <t>地址-省（自治区、直辖市）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14741,16 +14120,636 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WS 363.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.201 血缘关系代码表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职业类别代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.102 出生（分娩）地点类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.104 传染病患者归属代码表</t>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.202 传染病患者职业代码表</t>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.203 家庭年人均收入代码表</t>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.101 身份证件类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.103 死亡地点类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.201 血缘关系代码表</t>
+  </si>
+  <si>
+    <t>WS 364.3 卫生信息数据元值域代码 第3部分:人口学及社会经济学特征 CV02.01.204 医疗保险类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.004 出生缺陷儿结局代码表</t>
+  </si>
+  <si>
+    <t>WS 364.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.003 分娩方式代码表</t>
+  </si>
+  <si>
+    <t>WS 364.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.005 既往常见疾病种类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.006 既往患病种类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.005 既往治疗效果类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.001 家族近亲婚配者与本人关系代码表</t>
+  </si>
+  <si>
+    <t>WS 364.4 卫生信息数据元值域代码 第4部分:健康史 CV02.10.002 妊娠终止方式代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.114 艾滋病接触史代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.404 艾滋病患者亲属HIV感染状况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.102 被动吸烟场所类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.304 厕所类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.302 厨房排风设施类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.116 个人不良行为接触史代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.301 环境危险因素暴露类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.112 患重性精神疾病对家庭社会的影响代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.403 接触有害因素类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.110 每年食用的食物食用频率代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.114 每日饮水量代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.109 每天食用的食物食用频率代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.303 燃料类型类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.106 饮食种类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.202 受照原因代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.103 吸食烟草种类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.101 吸烟状态代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.104 饮酒频率代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.105 饮酒种类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.108 饮食频率分类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.107 饮食习惯代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.115 饮水类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.402 孕产期高危因素代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.401 孕早期服药类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.111 身体活动频率代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.203 职业病危害因素类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.201 职业照射种类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.5 卫生信息数据元值域代码 第5部分:健康危险因素 CV03.00.204 农药名称代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.012 儿童大便性状代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.010 儿童睡眠质量代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.011 儿童睡眠情况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.001 妇科及乳腺不适症状代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.009 精神症状代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.013 老年人健康状态自我评估代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.008 慢性丝虫病患者症状代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.002 乳汁量代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.005 伤害发生地点代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.006 伤害发生时活动类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.003 伤害发生原因代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.004 伤害意图类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.007 疑似结核患者症状代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.010 齿列类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.008 儿童面色代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.021 可疑佝偻病症状代码</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.005 浮肿状况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.003 妇科检查方式代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.001 附件检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.013 肛门指诊检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.006 巩膜检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.009 黄疸部位代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.022 可疑佝偻病体征代码</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.007 口唇外观代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.011 淋巴结检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.017 慢性丝虫病症状发作部位代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.004 皮肤检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.018 前囟张力代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.012 乳腺检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.016 伤害部位代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.014 下肢水肿检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.002 子宫大小代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.015 足背动脉搏动代码表</t>
+  </si>
+  <si>
+    <t>WS 364.7 卫生信息数据元值域代码 第7部分:体格检查 CV04.10.019 脐带检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.8 卫生信息数据元值域代码 第8部分:临床辅助检查 CV04.30.002 常用放射诊断检查技术编码表</t>
+  </si>
+  <si>
+    <t>WS 364.8 卫生信息数据元值域代码 第8部分:临床辅助检查 CV04.30.001 血吸虫患者肝实质纤维化程度代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.005 ABO血型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.002 HBV基因分型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.004 HBV耐药突变检测阳性项目代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.003 HBV血清型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.001 HBV血清学标志阳性项目代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.007 采血部位代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.006 采血方式代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.015 尿实验室定性检测结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.012 妊娠诊断方法代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.014 痰检培养结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.009 新生儿疾病筛查方法代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.008 新生儿疾病筛查项目代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.016 血吸虫病虫卵检查方法代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.017 血吸虫病检测方法代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.018 血吸虫病抗体检测方法代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.013 药敏试验结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.010 阴道分泌物清洁度代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.011 阴道细胞学诊断结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.9 卫生信息数据元值域代码 第9部分:实验室检查 CV04.50.019 阴道分泌物检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.039 5岁以下儿童死因分类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.028 病毒性肝炎类型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.010 会阴裂伤情况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.009 产时并发症代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.016 出生缺陷类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.015 出生缺陷确诊时间类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.014 出生缺陷诊断依据代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.017 传染病名称代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.033 放射性疾病的分度代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.034 放射性疾病的分期代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.021 肺结核诊断结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.019 肺外结核部位代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.031 肝衰竭分类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.038 过敏源代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.018 结核病合并症代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.029 慢性HBV感染临床诊断分类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.030 慢性乙型肝炎的临床分级代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.035 农药中毒原因类型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.003 乳糜尿发作诱因代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.004 伤害性质代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.011 伤口愈合状况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.025 晚期血吸虫病病例类型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.037 死亡最高诊断依据类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.007 胎方位代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.008 胎先露代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.013 新生儿并发症代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.012 新生儿黄疸程度代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.023 血吸虫病感染方式代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.022 血吸虫病合并症代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.032 预防接种后不良反应临床诊断代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.006 孕产妇死亡死因分类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.020 诊断结核病类型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.002 诊断状态代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.005 中医体质分类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.026 肿瘤临床分期代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.027 肿瘤诊断依据代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.036 重性精神疾病名称代码表</t>
+  </si>
+  <si>
+    <t>WS 364.10 卫生信息数据元值域代码 第10部分:医学诊断 CV05.01.001 住院者疾病状态代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.001 残疾情况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.015 5岁以下儿童未治疗或未就医原因代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.007 儿童体弱原因类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.005 婚前医学检查结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.6 卫生信息数据元值域代码 第6部分:主诉与症状 CV04.01.014 老年人生活自理能力自我评估代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.006 儿童生长发育评价结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.010 疾病转归代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.011 伤害转归代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.003 重性精神疾病患者社会功能情况分类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.012 随访评价结果代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.013 重性精神疾病患者危险性分级代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.002 心理状态代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.008 血吸虫病患者劳动能力分级代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.018 疑似食源性异常病例（健康事件）报告卡上报原因代码</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码:医学评估 CV05.10.015 乙肝患者病情转归代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.014 乙肝抗病毒治疗的血清学应答代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.004 劳动能力评定分级代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.009 职业健康检查结论代码表</t>
+  </si>
+  <si>
+    <t>WS 364.11 卫生信息数据元值域代码 第11部分:医学评估 CV05.10.017 疑似食源性异常病例（健康事件）可疑病因代码</t>
+  </si>
+  <si>
+    <t>WS 364.11卫生信息数据元值域代码 第11部分:医学评估 CV05.10.016 影响孕产妇死亡的主要因素代码表</t>
+  </si>
+  <si>
+    <t>WS 364.13 卫生信息数据元值域代码 第13部分:卫生费用 CV07.10.001 门诊费用分类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.13 卫生信息数据元值域代码 第13部分:卫生费用 CV07.10.004 医疗费用结算方式代码表</t>
+  </si>
+  <si>
+    <t>WS 364.13 卫生信息数据元值域代码 第13部分:卫生费用 CV07.10.003 医疗费用来源类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.003 监督员执业范围代码表</t>
+  </si>
+  <si>
+    <t>WS 364.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.001 卫生监督机构人员编制类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.002 卫生监督机构行政级别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.001 卫生监督机构性质代码表</t>
+  </si>
+  <si>
+    <t>WS 364.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.006 血吸虫病诊断（治疗）机构级别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.005 肿瘤诊疗机构代码表</t>
+  </si>
+  <si>
+    <t>WS 364.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.004 主要致死疾病的最高诊断机构级别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.14 卫生信息数据元值域代码 第14部分:卫生机构 CV08.10.003 监督机构科室代码表</t>
+  </si>
+  <si>
+    <t>WS 364.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.002 卫生监督机构职工类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.004 助产人员类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.15 卫生信息数据元值域代码 第15部分:卫生人员 CV08.30.005 专业技术职务类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.101 宫内节育器种类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.102 交通工具代码表</t>
+  </si>
+  <si>
+    <t>WS 364.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.001 疫苗名称代码表</t>
+  </si>
+  <si>
+    <t>WS 364.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.003 药敏试验药物代码表</t>
+  </si>
+  <si>
+    <t>WS 364.16 卫生信息数据元值域代码 第16部分:药品、设备与材料 CV08.50.002 药物剂型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.213 采供血卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.202 卫生监督检查与行政处罚案件来源代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.204 卫生行政处罚结果及行政措施代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.212 传染病防治违法事实代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.101 单位类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.208 放射卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.112 放射性同位素和射线装置的种类代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.205 公共场所违法事实代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.111 资质等级代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.110 职业卫生技术服务业务范围代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.217 卫生监督证书类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.108 检验指标代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.301 检查结果通知形式代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码:卫生管理 CV09.00.206 生活饮用水违法事实代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.401 收入与支出代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.105 水源水类型代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.203 卫生监督检查与行政处罚专业类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.201 卫生监督量化分级管理等级评定情况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.102 项目性质代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.209 校内辅助设施类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.216 行政处分类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.214 行政复议情况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.215 行政诉讼情况代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.218 许可类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.210 学校卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.211 医疗卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.104 饮用水类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.107 生活饮用水消毒方式代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.106 制水工艺代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.103 职业病建设项目审核代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.207 职业卫生违法事实代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码 第17部分:卫生管理 CV09.00.109 职业性健康监护体检类别代码表</t>
+  </si>
+  <si>
+    <t>WS 364.17 卫生信息数据元值域代码:卫生管理 CV09.00.402 资产与负债代码表</t>
   </si>
 </sst>
 </file>
@@ -22712,7 +22711,7 @@
         <v>165</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>4670</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -22732,7 +22731,7 @@
         <v>165</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>4671</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -22752,7 +22751,7 @@
         <v>165</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>4672</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -22832,7 +22831,7 @@
         <v>279</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4673</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -23052,7 +23051,7 @@
         <v>279</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>4674</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -23152,7 +23151,7 @@
         <v>165</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>4675</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -23252,7 +23251,7 @@
         <v>165</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>4676</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -23592,7 +23591,7 @@
         <v>165</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>4677</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -23612,7 +23611,7 @@
         <v>279</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>4678</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -23652,7 +23651,7 @@
         <v>165</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>4679</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -23672,7 +23671,7 @@
         <v>279</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>4680</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -23712,7 +23711,7 @@
         <v>165</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>4681</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -24452,7 +24451,7 @@
         <v>165</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>4682</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -25182,7 +25181,7 @@
         <v>165</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>4683</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -25382,7 +25381,7 @@
         <v>165</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4684</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -25502,7 +25501,7 @@
         <v>165</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>4685</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -25602,7 +25601,7 @@
         <v>165</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>4686</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -25622,7 +25621,7 @@
         <v>165</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>4687</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -25642,7 +25641,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>4688</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -26122,7 +26121,7 @@
         <v>165</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>4689</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -26342,7 +26341,7 @@
         <v>165</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>4690</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -26562,7 +26561,7 @@
         <v>165</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>4691</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -26942,7 +26941,7 @@
         <v>165</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>4692</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -26962,7 +26961,7 @@
         <v>165</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>4693</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -27102,7 +27101,7 @@
         <v>165</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>4694</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -27202,7 +27201,7 @@
         <v>165</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>4695</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -27402,7 +27401,7 @@
         <v>165</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>4696</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -27902,7 +27901,7 @@
         <v>165</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>4697</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -28002,7 +28001,7 @@
         <v>165</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>4698</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -28122,7 +28121,7 @@
         <v>279</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>4699</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -28842,7 +28841,7 @@
         <v>165</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>4700</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -29462,7 +29461,7 @@
         <v>165</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>4701</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -29582,7 +29581,7 @@
         <v>165</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>4702</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -29642,7 +29641,7 @@
         <v>165</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>4703</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -30986,7 +30985,7 @@
         <v>165</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>4704</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -31206,7 +31205,7 @@
         <v>165</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>4705</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -31299,7 +31298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
@@ -31728,7 +31727,7 @@
         <v>165</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4706</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -31808,7 +31807,7 @@
         <v>165</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4707</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -31828,7 +31827,7 @@
         <v>279</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>4708</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -31848,7 +31847,7 @@
         <v>165</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>4709</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -31868,7 +31867,7 @@
         <v>279</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>4710</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -32048,7 +32047,7 @@
         <v>165</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>4711</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -32068,7 +32067,7 @@
         <v>165</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>4712</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -32708,7 +32707,7 @@
         <v>165</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>4713</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -32848,7 +32847,7 @@
         <v>165</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>4713</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -32948,7 +32947,7 @@
         <v>165</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>4713</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -32968,7 +32967,7 @@
         <v>165</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>4713</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -33188,7 +33187,7 @@
         <v>165</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>4714</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -33308,7 +33307,7 @@
         <v>165</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>4715</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -33428,7 +33427,7 @@
         <v>165</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>4716</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -33448,7 +33447,7 @@
         <v>165</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>4717</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -33768,7 +33767,7 @@
         <v>165</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>4718</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -33788,7 +33787,7 @@
         <v>165</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>4719</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -33808,7 +33807,7 @@
         <v>165</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>4720</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -33928,7 +33927,7 @@
         <v>165</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>4721</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -34068,7 +34067,7 @@
         <v>165</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>4722</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -34108,7 +34107,7 @@
         <v>279</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>4723</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -34288,7 +34287,7 @@
         <v>165</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>4724</v>
+        <v>4730</v>
       </c>
     </row>
   </sheetData>
@@ -34301,7 +34300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -34730,7 +34729,7 @@
         <v>279</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4725</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -34750,7 +34749,7 @@
         <v>165</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>4726</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -34770,7 +34769,7 @@
         <v>165</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>4727</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -34810,7 +34809,7 @@
         <v>279</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4728</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -34890,7 +34889,7 @@
         <v>279</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>4729</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -34910,7 +34909,7 @@
         <v>165</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4730</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -34930,7 +34929,7 @@
         <v>165</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>4731</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -34950,7 +34949,7 @@
         <v>165</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>4732</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -35010,7 +35009,7 @@
         <v>165</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>4733</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -35030,7 +35029,7 @@
         <v>165</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>4734</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -35070,7 +35069,7 @@
         <v>165</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>4735</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -35090,7 +35089,7 @@
         <v>165</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4736</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -35110,7 +35109,7 @@
         <v>165</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>4737</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -35150,7 +35149,7 @@
         <v>659</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>4738</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -35230,7 +35229,7 @@
         <v>165</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4739</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -35290,7 +35289,7 @@
         <v>165</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>4740</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -35310,7 +35309,7 @@
         <v>165</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>4741</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -35330,7 +35329,7 @@
         <v>165</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>4742</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -35430,7 +35429,7 @@
         <v>165</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>4743</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -35450,7 +35449,7 @@
         <v>279</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>4744</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -35490,7 +35489,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>4745</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -35510,7 +35509,7 @@
         <v>165</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>4746</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -35570,7 +35569,7 @@
         <v>165</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>4747</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -35590,7 +35589,7 @@
         <v>279</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>4748</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -35610,7 +35609,7 @@
         <v>165</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>4749</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -35650,7 +35649,7 @@
         <v>2804</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>4750</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -35670,7 +35669,7 @@
         <v>165</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>4751</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -35690,7 +35689,7 @@
         <v>165</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>4752</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -35710,7 +35709,7 @@
         <v>165</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>4753</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -35750,7 +35749,7 @@
         <v>1845</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>4754</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -35770,7 +35769,7 @@
         <v>279</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>4755</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -35850,7 +35849,7 @@
         <v>165</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>4756</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -35910,7 +35909,7 @@
         <v>165</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>4757</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -36010,7 +36009,7 @@
         <v>279</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>4758</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -36050,7 +36049,7 @@
         <v>165</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>4759</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -36110,7 +36109,7 @@
         <v>279</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>4760</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -36130,7 +36129,7 @@
         <v>165</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>4761</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -36150,7 +36149,7 @@
         <v>165</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>4762</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -36183,7 +36182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
@@ -36712,7 +36711,7 @@
         <v>279</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>4763</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -36992,7 +36991,7 @@
         <v>165</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>4764</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -37012,7 +37011,7 @@
         <v>279</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>4765</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -37152,7 +37151,7 @@
         <v>165</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>4766</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -37432,7 +37431,7 @@
         <v>165</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>4767</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -37492,7 +37491,7 @@
         <v>165</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>4768</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -37512,7 +37511,7 @@
         <v>165</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>4768</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -37532,7 +37531,7 @@
         <v>165</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>4769</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -37672,7 +37671,7 @@
         <v>165</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>4770</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -37692,7 +37691,7 @@
         <v>165</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>4771</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -37732,7 +37731,7 @@
         <v>165</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>4768</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -37892,7 +37891,7 @@
         <v>165</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>4772</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -37992,7 +37991,7 @@
         <v>165</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>4768</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -38052,7 +38051,7 @@
         <v>165</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>4769</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -38112,7 +38111,7 @@
         <v>165</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>4773</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -38252,7 +38251,7 @@
         <v>165</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>4774</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -38392,7 +38391,7 @@
         <v>165</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>4775</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -38412,7 +38411,7 @@
         <v>165</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>4769</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -38432,7 +38431,7 @@
         <v>165</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>4776</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -38452,7 +38451,7 @@
         <v>165</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>4777</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -38472,7 +38471,7 @@
         <v>165</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>4778</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -38672,7 +38671,7 @@
         <v>165</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>4769</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -38772,7 +38771,7 @@
         <v>279</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>4779</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -38792,7 +38791,7 @@
         <v>165</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>4769</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -38812,7 +38811,7 @@
         <v>165</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>4780</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -38832,7 +38831,7 @@
         <v>165</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>4769</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -38992,7 +38991,7 @@
         <v>165</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>4769</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -39052,7 +39051,7 @@
         <v>165</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>4781</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -39132,7 +39131,7 @@
         <v>279</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>4782</v>
+        <v>4788</v>
       </c>
     </row>
   </sheetData>
@@ -39145,7 +39144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
@@ -43568,7 +43567,7 @@
         <v>279</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>4783</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -43648,7 +43647,7 @@
         <v>279</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>4784</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -43668,7 +43667,7 @@
         <v>165</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>4785</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -43749,7 +43748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -44558,7 +44557,7 @@
         <v>165</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>4786</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -44818,7 +44817,7 @@
         <v>1845</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>4787</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -44838,7 +44837,7 @@
         <v>165</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>4788</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -44858,7 +44857,7 @@
         <v>165</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>4789</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -44878,7 +44877,7 @@
         <v>279</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>4786</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -44958,7 +44957,7 @@
         <v>165</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>4790</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -45118,7 +45117,7 @@
         <v>165</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>4791</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -45138,7 +45137,7 @@
         <v>279</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>4792</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -45218,7 +45217,7 @@
         <v>279</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>4793</v>
+        <v>4799</v>
       </c>
     </row>
   </sheetData>
@@ -46160,7 +46159,7 @@
         <v>1845</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4794</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -46180,7 +46179,7 @@
         <v>165</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>4795</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -46260,7 +46259,7 @@
         <v>314</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>4796</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="117" spans="3:3">
@@ -46981,7 +46980,7 @@
         <v>279</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4797</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -47021,7 +47020,7 @@
         <v>165</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>4798</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -47041,7 +47040,7 @@
         <v>279</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4799</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -47161,7 +47160,7 @@
         <v>165</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4800</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -47181,7 +47180,7 @@
         <v>279</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>4801</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -47281,7 +47280,7 @@
         <v>1845</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>4799</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -47321,7 +47320,7 @@
         <v>1845</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>4799</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -47474,7 +47473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -47943,7 +47942,7 @@
         <v>1845</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>4802</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -47963,7 +47962,7 @@
         <v>279</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4803</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -48003,7 +48002,7 @@
         <v>1845</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>4804</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -48043,7 +48042,7 @@
         <v>888</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>4805</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -48083,7 +48082,7 @@
         <v>863</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4806</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -48143,7 +48142,7 @@
         <v>314</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>4807</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -48163,7 +48162,7 @@
         <v>279</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>4808</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -48223,7 +48222,7 @@
         <v>165</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>4809</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -48263,7 +48262,7 @@
         <v>165</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4810</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -48283,7 +48282,7 @@
         <v>165</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>4811</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -48303,7 +48302,7 @@
         <v>165</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>4812</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -48443,7 +48442,7 @@
         <v>165</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>4813</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -48483,7 +48482,7 @@
         <v>165</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>4814</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -48823,7 +48822,7 @@
         <v>165</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>4815</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -48863,7 +48862,7 @@
         <v>3858</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>4816</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -48883,7 +48882,7 @@
         <v>279</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>4817</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -49023,7 +49022,7 @@
         <v>279</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>4818</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -49043,7 +49042,7 @@
         <v>165</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>4819</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -49123,7 +49122,7 @@
         <v>314</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>4804</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -49183,7 +49182,7 @@
         <v>165</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>4820</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -49203,7 +49202,7 @@
         <v>279</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>4821</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -49263,7 +49262,7 @@
         <v>165</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>4822</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -49303,7 +49302,7 @@
         <v>279</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>4823</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -49323,7 +49322,7 @@
         <v>165</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>4824</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -49343,7 +49342,7 @@
         <v>165</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>4825</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -49383,7 +49382,7 @@
         <v>279</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>4826</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -49423,7 +49422,7 @@
         <v>279</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>4827</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -49463,7 +49462,7 @@
         <v>165</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>4828</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -49483,7 +49482,7 @@
         <v>165</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>4829</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -49503,7 +49502,7 @@
         <v>165</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>4830</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -49623,7 +49622,7 @@
         <v>165</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>4831</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -49663,7 +49662,7 @@
         <v>165</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>4831</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -49723,7 +49722,7 @@
         <v>165</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>4831</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -49823,7 +49822,7 @@
         <v>3858</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>4811</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -49843,7 +49842,7 @@
         <v>314</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>4832</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -49863,7 +49862,7 @@
         <v>165</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>4833</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -49903,7 +49902,7 @@
         <v>3858</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>4834</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -50500,7 +50499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
@@ -51213,8 +51212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -51702,7 +51701,7 @@
         <v>165</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4628</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -51762,7 +51761,7 @@
         <v>165</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>4629</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -51782,7 +51781,7 @@
         <v>235</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>4630</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -51810,7 +51809,7 @@
         <v>240</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>4835</v>
+        <v>4628</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>241</v>
@@ -51870,7 +51869,7 @@
         <v>249</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>4836</v>
+        <v>4629</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>250</v>
@@ -51890,7 +51889,7 @@
         <v>251</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>4837</v>
+        <v>4630</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>252</v>
@@ -51970,7 +51969,7 @@
         <v>260</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>4840</v>
+        <v>4632</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>261</v>
@@ -52002,7 +52001,7 @@
         <v>165</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>4628</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -52122,7 +52121,7 @@
         <v>165</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>4631</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -52362,7 +52361,7 @@
         <v>279</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>4632</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -52402,7 +52401,7 @@
         <v>338</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>4633</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -52582,7 +52581,7 @@
         <v>165</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>4838</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -52602,7 +52601,7 @@
         <v>338</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>4634</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -52750,7 +52749,7 @@
         <v>401</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>4839</v>
+        <v>4631</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>402</v>
@@ -52877,8 +52876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -53366,7 +53365,7 @@
         <v>165</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4635</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -53486,7 +53485,7 @@
         <v>338</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>4636</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -53686,7 +53685,7 @@
         <v>279</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>4637</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -53906,7 +53905,7 @@
         <v>279</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>4638</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -53986,7 +53985,7 @@
         <v>165</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>4639</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -54066,7 +54065,7 @@
         <v>165</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>4640</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -54286,7 +54285,7 @@
         <v>279</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>4641</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -55066,7 +55065,7 @@
         <v>279</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>4637</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -55099,8 +55098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -55528,7 +55527,7 @@
         <v>279</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>4642</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -55548,7 +55547,7 @@
         <v>165</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>4643</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -55568,7 +55567,7 @@
         <v>165</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>4644</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -55608,7 +55607,7 @@
         <v>165</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>4645</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -55628,7 +55627,7 @@
         <v>165</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>4646</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -55808,7 +55807,7 @@
         <v>279</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>4647</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -55928,7 +55927,7 @@
         <v>165</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>4648</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -55968,7 +55967,7 @@
         <v>279</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>4649</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -56068,7 +56067,7 @@
         <v>165</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>4650</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -56308,7 +56307,7 @@
         <v>165</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>4651</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -56348,7 +56347,7 @@
         <v>165</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>4652</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -56368,7 +56367,7 @@
         <v>165</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>4653</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -56468,7 +56467,7 @@
         <v>165</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>4643</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -56508,7 +56507,7 @@
         <v>165</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>4654</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -56668,7 +56667,7 @@
         <v>165</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>4655</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -56768,7 +56767,7 @@
         <v>279</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>4656</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -56888,7 +56887,7 @@
         <v>165</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>4657</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -56928,7 +56927,7 @@
         <v>165</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>4658</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -57008,7 +57007,7 @@
         <v>165</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>4659</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -57048,7 +57047,7 @@
         <v>165</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>4660</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -57068,7 +57067,7 @@
         <v>165</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>4661</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -57108,7 +57107,7 @@
         <v>165</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>4662</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -57128,7 +57127,7 @@
         <v>165</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>4663</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -57168,7 +57167,7 @@
         <v>279</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>4664</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -57188,7 +57187,7 @@
         <v>279</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>4665</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -57228,7 +57227,7 @@
         <v>165</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>4666</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -57308,7 +57307,7 @@
         <v>710</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>4667</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -57348,7 +57347,7 @@
         <v>710</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>4667</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -57388,7 +57387,7 @@
         <v>165</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>4668</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -57408,7 +57407,7 @@
         <v>338</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>4669</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="97" spans="1:5">

--- a/trunk/成品/R1/卫生信息数据元目录/卫生信息数据元目录.xlsx
+++ b/trunk/成品/R1/卫生信息数据元目录/卫生信息数据元目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="21030" windowHeight="11640" firstSheet="19" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="21030" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="更新日志" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8643" uniqueCount="4841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="4842">
   <si>
     <t>总则</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -14750,6 +14750,10 @@
   </si>
   <si>
     <t>WS 364.17 卫生信息数据元值域代码:卫生管理 CV09.00.402 资产与负债代码表</t>
+  </si>
+  <si>
+    <t>版本修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -21408,8 +21412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21866,9 +21870,15 @@
     <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16">
+        <v>40855</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4841</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
@@ -47473,7 +47483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
